--- a/Device Interaction/Automation/Music Player.xlsx
+++ b/Device Interaction/Automation/Music Player.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
   <si>
     <t>Application</t>
   </si>
@@ -53,10 +53,7 @@
     <t>Same app</t>
   </si>
   <si>
-    <t>oom</t>
-  </si>
-  <si>
-    <t>timeout</t>
+    <t>non-terminated</t>
   </si>
   <si>
     <t>detected</t>
@@ -128,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -167,9 +164,6 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -308,7 +302,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>8</v>
@@ -334,16 +328,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>7</v>
@@ -351,7 +345,7 @@
     </row>
     <row r="7">
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" ref="D7:H7" si="1">countif(D$2:D$6, "detected")</f>
@@ -374,13 +368,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" ref="I7:I10" si="3">sum(D7:H7)</f>
+        <f t="shared" ref="I7:I9" si="3">sum(D7:H7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" ref="D8:H8" si="2">countif(D$2:D$6, "no error")</f>
@@ -408,16 +402,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" ref="D9:H9" si="4">COUNTIF(D$2:D$6, "oom")</f>
-        <v>2</v>
+        <f t="shared" ref="D9:H9" si="4">COUNTIF(D$2:D$6, "non-terminated")</f>
+        <v>4</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="4"/>
@@ -425,45 +419,24 @@
       </c>
       <c r="G9" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" ref="D10:H10" si="5">COUNTIF(D$2:D$6, "timeout")</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
